--- a/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Status.xlsx
+++ b/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Status.xlsx
@@ -35,6 +35,12 @@
     <t>Model classified according to certain quality criteria.</t>
   </si>
   <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Status_3</t>
+  </si>
+  <si>
     <t>Uncurated</t>
   </si>
   <si>
@@ -42,12 +48,6 @@
   </si>
   <si>
     <t>Model not classified according to certain quality criteria.</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Status_3</t>
   </si>
 </sst>
 </file>
@@ -127,18 +127,18 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4"/>
     </row>
     <row r="5">
       <c r="C5"/>
